--- a/ESPN sports website/IPL/Royal Challengers Bangalore/Rajat Patidar.xlsx
+++ b/ESPN sports website/IPL/Royal Challengers Bangalore/Rajat Patidar.xlsx
@@ -445,31 +445,31 @@
         <v>Rajat Patidar</v>
       </c>
       <c r="C2" t="str">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D2" t="str">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G2" t="str">
-        <v>140.00</v>
+        <v>207.40</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Kolkata</v>
       </c>
       <c r="J2" t="str">
-        <v>May 04, 2022</v>
+        <v>May 25, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>RCB won by 13 runs</v>
+        <v>RCB won by 14 runs</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Rajat Patidar</v>
       </c>
       <c r="C3" t="str">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D3" t="str">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E3" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
-        <v>138.09</v>
+        <v>162.50</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I3" t="str">
-        <v>Ahmedabad</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>May 27, 2022</v>
+        <v>April 30, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
+        <v>Titans won by 6 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Rajat Patidar</v>
       </c>
       <c r="C4" t="str">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D4" t="str">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E4" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
         <v>2</v>
       </c>
       <c r="G4" t="str">
-        <v>126.31</v>
+        <v>123.80</v>
       </c>
       <c r="H4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>May 08, 2022</v>
+        <v>May 13, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>RCB won by 67 runs</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Rajat Patidar</v>
       </c>
       <c r="C5" t="str">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D5" t="str">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="str">
-        <v>123.80</v>
+        <v>138.09</v>
       </c>
       <c r="H5" t="str">
-        <v>Punjab Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J5" t="str">
-        <v>May 13, 2022</v>
+        <v>May 27, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Rajat Patidar</v>
       </c>
       <c r="C6" t="str">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D6" t="str">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E6" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F6" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
-        <v>207.40</v>
+        <v>126.31</v>
       </c>
       <c r="H6" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I6" t="str">
-        <v>Kolkata</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>May 25, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>RCB won by 14 runs</v>
+        <v>RCB won by 67 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Rajat Patidar</v>
       </c>
       <c r="C7" t="str">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D7" t="str">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="str">
-        <v>162.50</v>
+        <v>100.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Gujarat Titans</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I7" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J7" t="str">
-        <v>April 30, 2022</v>
+        <v>April 26, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Titans won by 6 wickets (with 3 balls remaining)</v>
+        <v>Royals won by 29 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Rajat Patidar</v>
       </c>
       <c r="C8" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" t="str">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="str">
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>100.00</v>
+        <v>140.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I8" t="str">
         <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>April 26, 2022</v>
+        <v>May 04, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Royals won by 29 runs</v>
+        <v>RCB won by 13 runs</v>
       </c>
     </row>
   </sheetData>
